--- a/1150080028_TraanAnhNhan_TestingB4.xlsx
+++ b/1150080028_TraanAnhNhan_TestingB4.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0BC177-D468-47B7-B59E-CC750414F7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3017C1A-CFA0-498D-B3FD-1EF27067BC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1A613BEB-257C-4AE5-83B8-8CDDCC0C3D31}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{1A613BEB-257C-4AE5-83B8-8CDDCC0C3D31}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bt1" sheetId="1" r:id="rId1"/>
+    <sheet name="bt2" sheetId="3" r:id="rId2"/>
+    <sheet name="bt3" sheetId="2" r:id="rId3"/>
+    <sheet name="bt4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,8 +38,352 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="112">
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>BT_001</t>
+  </si>
+  <si>
+    <t>Test Case Description</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Nhân</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>TS. Huynh</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>QA Tester's Log</t>
+  </si>
+  <si>
+    <t>kiểm tra nhận xét từ TS. Huynh đề cập trong bản 1</t>
+  </si>
+  <si>
+    <t>Tester's Name</t>
+  </si>
+  <si>
+    <t>Date Tested</t>
+  </si>
+  <si>
+    <t>Test Case (Pass/Fail/Not Executed)</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>$#</t>
+  </si>
+  <si>
+    <t>Prerequisites</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Liên kết với app</t>
+  </si>
+  <si>
+    <t>UserID = tc543321</t>
+  </si>
+  <si>
+    <t>Pass = nm@123hi</t>
+  </si>
+  <si>
+    <t>idd</t>
+  </si>
+  <si>
+    <t>Kỹ thuật kiểm thử giá trị biên mạnh</t>
+  </si>
+  <si>
+    <t>Kết hợp kỹ thuật phân vùng tương đương</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí chữ/số chia 2 vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: Nhập chữ</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: Nhập số → Chia tiếp thành các phân vùng nguyên/ko nguyên</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí nguyên/không nguyên, chia thành 2 phân vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: Là số nguyên → Chia tiếp thành 3 phân vùng theo tiêu chí khoảng giá trị</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: Ko nguyên → Ví dụ 50.8</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Bộ dữ liệu</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí, trong hay ngoài khoảng chia thành 3 phân vùng:</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>Test Case 1:</t>
+  </si>
+  <si>
+    <t>không hợp lệ</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: các số nguyên &lt; 0</t>
+  </si>
+  <si>
+    <t>TG01</t>
+  </si>
+  <si>
+    <t>Test Case 2:</t>
+  </si>
+  <si>
+    <t>hợp lệ</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: Các số nguyên trong đoạn [0,100]</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>Test Case 3:</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: Các số nguyên &gt; 100</t>
+  </si>
+  <si>
+    <t>TG03</t>
+  </si>
+  <si>
+    <t>Test Case 4:</t>
+  </si>
+  <si>
+    <t>TG02</t>
+  </si>
+  <si>
+    <t>Test Case 5:</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>Test Case 6:</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>Test Case 7:</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>Test Case 8:</t>
+  </si>
+  <si>
+    <t>TG04</t>
+  </si>
+  <si>
+    <t>Test Case 9:</t>
+  </si>
+  <si>
+    <t>Kiểm thử đệ quy hàm</t>
+  </si>
+  <si>
+    <t>X^(n-1)*X</t>
+  </si>
+  <si>
+    <t>X^(n+1)/X</t>
+  </si>
+  <si>
+    <t>n = 0</t>
+  </si>
+  <si>
+    <t>n &gt; 0</t>
+  </si>
+  <si>
+    <t>n &lt; 0</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí n là số nguyên và không phải là số nguyên chia 2 vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: Số nguyên</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí x = 0; x &gt; 0; x &lt; 0 chia thành 3 phân vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: X &gt; 0</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: X &lt; 0</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí, n = 0; n &gt; 0; n &lt; 0</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: X ^n =1 nếu n=0</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: X^n=X^(n-1)*X nếu n&gt;0</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phân vùng 1: X = 0 </t>
+  </si>
+  <si>
+    <t>Phân vùng 3: X^n=X^(n+1)/X nếu n&lt;0 (sẽ không hợp lệ nếu X=0)</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>Test Case 10:</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: Số không nguyên -&gt; không hợp lệ</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Test Case 11:</t>
+  </si>
+  <si>
+    <t>BT_002</t>
+  </si>
+  <si>
+    <t>Chương trình nhập vào số nguyên</t>
+  </si>
+  <si>
+    <t>n&lt;0</t>
+  </si>
+  <si>
+    <t>i&lt;n+1</t>
+  </si>
+  <si>
+    <t>0&lt;=i&lt;=n</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí i = n+1; i &gt; n+1; i &lt; n+1 chia thành 3 phân vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: i = n+1</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: i &gt; n+1</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: i &lt; n+1</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: n=0</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: n&gt;0</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: n&lt;0</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí, X = 0; X &gt; 0; X &lt; 0</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: X=0</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: X&gt;0</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: X&lt;0</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TestCase12:</t>
+  </si>
+  <si>
+    <t>n&lt;=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k&lt;2 </t>
+  </si>
+  <si>
+    <t>k&gt;16</t>
+  </si>
+  <si>
+    <t>2&lt;=k&lt;=16</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí n&lt;=0, n&gt;0 chia thành 3 phân vùng</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: n&lt;=0</t>
+  </si>
+  <si>
+    <t>Theo tiêu chí, k&lt;2; k&gt;16; 2&lt;=k&lt;=16</t>
+  </si>
+  <si>
+    <t>Phân vùng 1: 2&lt;=k&lt;=16</t>
+  </si>
+  <si>
+    <t>Phân vùng 2: k&gt;16</t>
+  </si>
+  <si>
+    <t>Phân vùng 3: k&lt;2</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="B1dd\-mmm\-yy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -48,15 +394,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -64,12 +416,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -85,187 +616,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>29534</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>74763</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A0B635A-F629-FEC2-86FF-43C79C4BE06B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1" y="0"/>
-          <a:ext cx="7900580" cy="4327786"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>19242</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>9621</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>490700</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>158419</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0F9077-0A27-0355-7A6D-E9899A87B6EE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8505151" y="9621"/>
-          <a:ext cx="2896004" cy="7278116"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>57727</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>376764</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54312</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8FBE38C-7AD5-1F95-1505-30276CCF6B6C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12180454" y="0"/>
-          <a:ext cx="2743583" cy="5172797"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>72473</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>108377</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05780C19-8CCF-C6CC-F5EA-BA9C5F910CA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16365682" y="0"/>
-          <a:ext cx="4315427" cy="6506483"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,27 +935,2539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A787815-C4E4-466E-AB82-E727332C60C9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A10" zoomScale="72" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" customWidth="1"/>
+    <col min="10" max="10" width="39.54296875" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="J18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C19" s="19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C20" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="C21" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J22" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="J23" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="J24" t="s">
+        <v>64</v>
+      </c>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="23">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D31" s="21">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>1</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="D34" s="21">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="2"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D37" s="22"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="58">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5539C8E-51CB-4552-8846-7E65E2530D88}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE4ABF0-37E6-487A-89F2-F3EACFDE42C4}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A12" zoomScale="57" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17:L32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="25"/>
+      <c r="G24" s="20"/>
+      <c r="J24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="23">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="21">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>-1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="21">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="2">
+        <v>5</v>
+      </c>
+      <c r="D36" s="21">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="57">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5539C8E-51CB-4552-8846-7E65E2530D88}">
+  <dimension ref="A1:P39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="61" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C19" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="C22" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D26" s="21">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="21">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="21">
+        <v>17</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D29" s="21">
+        <v>17</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="21">
+        <v>17</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="21">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D32" s="21">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="21">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="2"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="2"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="2"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="66">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="N25:P25"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="N26:P26"/>
+    <mergeCell ref="N27:P27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="N30:P30"/>
+    <mergeCell ref="N31:P31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72707B1-8603-4BD4-BE2C-CC387D5E6218}">
+  <dimension ref="A1:L39"/>
+  <sheetViews>
+    <sheetView zoomScale="51" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="17.36328125" customWidth="1"/>
+    <col min="3" max="3" width="25.90625" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="9" max="9" width="4.54296875" customWidth="1"/>
+    <col min="10" max="10" width="12.453125" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" customWidth="1"/>
+    <col min="12" max="12" width="28.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="3">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="4">
+        <v>46028</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>2</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="F11" s="2">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="8"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="F13" s="2">
+        <v>4</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="2">
+        <v>5</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="J17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="J18" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="J20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="J21" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="J22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="J23" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="J24" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="J25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="18"/>
+      <c r="J26" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="18"/>
+      <c r="J27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="18"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>